--- a/delhi-books.xlsx
+++ b/delhi-books.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>Total books</t>
   </si>
@@ -85,6 +85,9 @@
 ORDER BY items.dateaccessioned DESC;</t>
   </si>
   <si>
+    <t>Available</t>
+  </si>
+  <si>
     <t>Not For Loan</t>
   </si>
   <si>
@@ -92,6 +95,9 @@
   </si>
   <si>
     <t>Withdrawn and Lost</t>
+  </si>
+  <si>
+    <t>Books that have been issued at least once</t>
   </si>
   <si>
     <t>SELECT items.barcode, biblio.title, biblio.author, items.dateaccessioned 
@@ -113,7 +119,7 @@
   <numFmts count="1">
     <numFmt formatCode="GENERAL" numFmtId="164"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="Arial"/>
       <charset val="1"/>
@@ -135,8 +141,15 @@
       <family val="0"/>
       <sz val="10"/>
     </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <b val="true"/>
+      <sz val="10"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -147,6 +160,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF33CCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -191,11 +216,21 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="4" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="4" fontId="4" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="4" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="4" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -206,6 +241,66 @@
     <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
     <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF66"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -336,105 +431,207 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C4" activeCellId="0" pane="topLeft" sqref="C4"/>
+      <selection activeCell="A32" activeCellId="0" pane="topLeft" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.5561224489796"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3928571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.6173469387755"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="72.7040816326531"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="36.0255102040816"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="17.4030612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.5"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="72.7040816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="11.5714285714286"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="2">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>26340</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="3">
-      <c r="A3" s="0" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
+      <c r="A3" s="3"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
+      <c r="A4" s="3"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="17.9" outlineLevel="0" r="5">
+      <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C5" s="5" t="n">
         <v>5474</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D5" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
-      <c r="B4" s="0" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C6" s="5" t="n">
+        <v>3219</v>
+      </c>
+      <c r="D6" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="5" t="n">
         <v>19</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
-      <c r="B5" s="0" t="s">
+      <c r="D7" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>1359</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>860</v>
+      </c>
+      <c r="D10" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18.65" outlineLevel="0" r="14">
+      <c r="A14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9" t="n">
+        <v>20866</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="9" t="n">
+        <v>19069</v>
+      </c>
+      <c r="D15" s="9"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>1359</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
-      <c r="B6" s="0" t="s">
+      <c r="C16" s="9" t="n">
+        <v>46</v>
+      </c>
+      <c r="D16" s="9"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="9" t="n">
+        <v>1702</v>
+      </c>
+      <c r="D17" s="9"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="0" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
-      <c r="B7" s="0" t="s">
+      <c r="C18" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" s="9"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="0" t="n">
-        <v>860</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
-      <c r="B8" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="9">
-      <c r="C9" s="0" t="n">
-        <v>20866</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="C19" s="9" t="n">
+        <v>46</v>
+      </c>
+      <c r="D19" s="9"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9" t="s">
         <v>22</v>
       </c>
+      <c r="C20" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -452,28 +649,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.1"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5714285714286"/>
   </cols>
-  <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1">
-      <c r="A1" s="0" t="n">
-        <v>2255</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2">
-      <c r="A2" s="0" t="n">
-        <v>3219</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
